--- a/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -904,10 +904,10 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.096636" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.246332" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.133059" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.671772" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.98655" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.157732" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.227238" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.771335" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
